--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1471139.895936063</v>
+        <v>1535660.317796512</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13283008.53108102</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2245491.494744291</v>
+        <v>698313.6830760745</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6813302.647775531</v>
+        <v>7319506.48099539</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>117.5875966600462</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>99.22789100784752</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -719,13 +721,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +819,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>105.521621548265</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.857062697108432</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -880,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>214.5967004584928</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>195.5104445397025</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -962,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1066,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>92.01098438110735</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>221.7796021421477</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1133,10 +1135,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>264.9481049475941</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1145,7 +1147,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>156.2364475477769</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1294,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>35.21818527535722</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1339,22 +1341,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>207.8455194454785</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1370,10 +1372,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1385,10 +1387,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>20.98779614706018</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1528,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348149</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -1576,7 +1578,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>134.9989678506928</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1591,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>275.8590481738169</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>299.6307676069974</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>106.38799505241</v>
       </c>
       <c r="E16" t="n">
-        <v>152.9079460120737</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1856,13 +1858,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2011,10 +2013,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>163.768216760865</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2062,10 +2064,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>11.39996927779299</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2090,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2242,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>153.9723828910722</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2299,10 +2301,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>67.45468936580201</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>130.04008984845</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>128.2488759891333</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2716,10 +2718,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>127.1775712042721</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>130.0400898484501</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2801,7 +2803,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G29" t="n">
         <v>400.2956717864458</v>
@@ -2956,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>58.61457513054057</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3010,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3193,19 +3195,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>19.75708724877017</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3247,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>73.88082355467124</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>147.6313955609268</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -3664,16 +3666,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>7.441938898131897</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3724,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>189.5733066869331</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3754,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>2.223773326656337</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3901,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>73.11312684696499</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,19 +3951,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>169.8571210237862</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>160.4953727762263</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3995,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4144,10 +4146,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>220.5479980920884</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>144.8471851408333</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1376.947823099961</v>
+        <v>462.6949895047144</v>
       </c>
       <c r="C2" t="n">
-        <v>950.0470931132614</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D2" t="n">
-        <v>930.7948763386657</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E2" t="n">
-        <v>504.8179364865234</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F2" t="n">
-        <v>483.7341587163277</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
         <v>79.39509630577632</v>
@@ -4328,52 +4330,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>44.49822504924753</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M2" t="n">
-        <v>549.9383681074144</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N2" t="n">
-        <v>1100.603903091853</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091853</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2124.681059525157</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335517</v>
+        <v>1903.75548856979</v>
       </c>
       <c r="U2" t="n">
-        <v>1862.189048931929</v>
+        <v>1645.400579166202</v>
       </c>
       <c r="V2" t="n">
-        <v>1504.699634058179</v>
+        <v>1287.911164292452</v>
       </c>
       <c r="W2" t="n">
-        <v>1504.699634058179</v>
+        <v>891.5198145927988</v>
       </c>
       <c r="X2" t="n">
-        <v>1497.02003926633</v>
+        <v>883.8402198009501</v>
       </c>
       <c r="Y2" t="n">
-        <v>1495.723173261624</v>
+        <v>478.5029497558403</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>966.8891568663047</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L3" t="n">
-        <v>1517.554691850743</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M3" t="n">
-        <v>1592.226407393235</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N3" t="n">
-        <v>1592.226407393235</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O3" t="n">
-        <v>1592.226407393235</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P3" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.9200589091701</v>
+        <v>791.3256356528027</v>
       </c>
       <c r="C4" t="n">
-        <v>322.9474957880861</v>
+        <v>791.3256356528027</v>
       </c>
       <c r="D4" t="n">
-        <v>322.9474957880861</v>
+        <v>628.0088627795734</v>
       </c>
       <c r="E4" t="n">
-        <v>216.3599992746871</v>
+        <v>461.8006569324269</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49822504924753</v>
+        <v>289.9388827069873</v>
       </c>
       <c r="G4" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
@@ -4519,19 +4521,19 @@
         <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1482.686776502613</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>1207.834372675126</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212358</v>
+        <v>1207.834372675126</v>
       </c>
       <c r="Y4" t="n">
-        <v>685.0860276212358</v>
+        <v>981.4916043648684</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.731517970704</v>
+        <v>831.8385222885896</v>
       </c>
       <c r="C5" t="n">
-        <v>1110.830787984004</v>
+        <v>808.9781963422938</v>
       </c>
       <c r="D5" t="n">
-        <v>687.5381671690047</v>
+        <v>385.6855755272941</v>
       </c>
       <c r="E5" t="n">
-        <v>261.5612273168623</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4565,25 +4567,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>572.914647509062</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1123.5801824935</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1674.245717477938</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>1674.245717477938</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462377</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4592,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>1923.058660820666</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058789</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="V5" t="n">
-        <v>1966.556343058789</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="W5" t="n">
-        <v>1966.556343058789</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.87674826694</v>
+        <v>1657.024156625229</v>
       </c>
       <c r="Y5" t="n">
-        <v>1957.579882262234</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4643,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>323.6423572907505</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>323.6423572907505</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>874.3078922751886</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N6" t="n">
-        <v>1424.973427259627</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O6" t="n">
-        <v>1771.166545545054</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
         <v>1771.166545545054</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>961.4223778677166</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>789.4498147466326</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>626.1330418734033</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>459.9248360262568</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.872639149549</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.533291375449</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U7" t="n">
-        <v>1654.348842875753</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="V7" t="n">
-        <v>1654.348842875753</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>1430.329042732169</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>1187.765146177975</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>961.4223778677166</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>988.4183030167756</v>
+        <v>813.6310375047708</v>
       </c>
       <c r="C8" t="n">
-        <v>561.5175730300757</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D8" t="n">
-        <v>138.224952215076</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E8" t="n">
-        <v>116.2884164033376</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F8" t="n">
-        <v>95.20463863314193</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>94.90598026299462</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>94.90598026299462</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>60.00910900646583</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>422.6125678233614</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>1138.12087579886</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>1138.12087579886</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M8" t="n">
-        <v>1880.733599753875</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N8" t="n">
-        <v>2544.369970819108</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>2544.369970819108</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.369970819108</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>3000.455450323291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>3000.455450323291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>3000.455450323291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2779.529879367924</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2621.715285885321</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>2621.715285885321</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W8" t="n">
-        <v>2225.323936185668</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.603937353415</v>
+        <v>1638.81667184141</v>
       </c>
       <c r="Y8" t="n">
-        <v>1408.266667308306</v>
+        <v>1233.479401796301</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>627.1326000379211</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>509.6266965554258</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>405.7867380707108</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>301.084804343648</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>207.4389740265522</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>113.3852022441562</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>60.00910900646583</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00910900646583</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>60.00910900646583</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>60.00910900646583</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>802.6218329614803</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>802.6218329614803</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>802.6218329614803</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O9" t="n">
-        <v>1152.499022548478</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P9" t="n">
-        <v>1868.696739586976</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1868.696739586976</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1868.696739586976</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1787.37249214823</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1645.492556445908</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1460.724360365545</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1255.751221504811</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1059.229844338028</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>895.7524981046914</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>756.0596094579838</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>636.0391213109498</v>
+        <v>681.2762346339712</v>
       </c>
       <c r="C10" t="n">
-        <v>636.0391213109498</v>
+        <v>681.2762346339712</v>
       </c>
       <c r="D10" t="n">
-        <v>636.0391213109498</v>
+        <v>517.9594617607419</v>
       </c>
       <c r="E10" t="n">
-        <v>469.8309154638034</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F10" t="n">
-        <v>469.8309154638034</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>303.5739457580355</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
-        <v>159.7776772661899</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>60.00910900646583</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>117.5004372306238</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>344.028038436461</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>698.7173597308818</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1089.903154701133</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1467.394665577168</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1822.822794256932</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2113.422006178832</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2240.422136419594</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2193.383523106767</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2023.248475625902</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1779.909127851802</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>1779.909127851802</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>1569.964158714955</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.111754887468</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="X10" t="n">
-        <v>1052.547858333273</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="Y10" t="n">
-        <v>826.2050900230154</v>
+        <v>871.4422033460369</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1763.549817154399</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>1336.649087167699</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>1336.649087167699</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>910.6721473155566</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>485.5479655049568</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>81.2089030944054</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>60.00910900646583</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>422.6125678233614</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>1138.12087579886</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1880.733599753875</v>
+        <v>1741.388990499732</v>
       </c>
       <c r="M11" t="n">
-        <v>1880.733599753875</v>
+        <v>2745.67509191879</v>
       </c>
       <c r="N11" t="n">
-        <v>1880.733599753875</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.346323708889</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>2623.346323708889</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>2882.899115441388</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>3000.455450323291</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3000.455450323291</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>3000.455450323291</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>3000.455450323291</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>3000.455450323291</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3000.455450323291</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>2588.735451491038</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2183.398181445929</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>627.1326000379211</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>509.6266965554258</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>405.7867380707108</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>301.084804343648</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>207.4389740265522</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>113.3852022441562</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>331.7065982860569</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K12" t="n">
-        <v>661.9385387691817</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L12" t="n">
-        <v>661.9385387691817</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M12" t="n">
-        <v>661.9385387691817</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="N12" t="n">
-        <v>1404.551262724196</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="O12" t="n">
-        <v>1404.551262724196</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P12" t="n">
-        <v>1404.551262724196</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q12" t="n">
-        <v>1868.696739586976</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
-        <v>1868.696739586976</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1787.37249214823</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1645.492556445908</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1460.724360365545</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1255.751221504811</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1059.229844338028</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>895.7524981046914</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>756.0596094579838</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>474.2541432681954</v>
+        <v>1017.001097697459</v>
       </c>
       <c r="C13" t="n">
-        <v>474.2541432681954</v>
+        <v>845.0285345763751</v>
       </c>
       <c r="D13" t="n">
-        <v>474.2541432681954</v>
+        <v>681.7117617031458</v>
       </c>
       <c r="E13" t="n">
-        <v>474.2541432681954</v>
+        <v>515.5035558559994</v>
       </c>
       <c r="F13" t="n">
-        <v>469.8309154638034</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G13" t="n">
-        <v>303.5739457580355</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>159.7776772661899</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>117.5004372306238</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>344.028038436461</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>698.7173597308818</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1089.903154701133</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1467.394665577168</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1822.822794256932</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2113.422006178832</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2240.422136419594</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2193.383523106767</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2023.248475625902</v>
+        <v>2097.088765190713</v>
       </c>
       <c r="T13" t="n">
-        <v>1779.909127851802</v>
+        <v>1853.749417416613</v>
       </c>
       <c r="U13" t="n">
-        <v>1499.724679352106</v>
+        <v>1573.564968916917</v>
       </c>
       <c r="V13" t="n">
-        <v>1218.013211960135</v>
+        <v>1291.853501524946</v>
       </c>
       <c r="W13" t="n">
-        <v>943.1608081326483</v>
+        <v>1017.001097697459</v>
       </c>
       <c r="X13" t="n">
-        <v>700.5969115784534</v>
+        <v>1017.001097697459</v>
       </c>
       <c r="Y13" t="n">
-        <v>474.2541432681954</v>
+        <v>1017.001097697459</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>910.2024598081655</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>483.3017298214656</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>60.00910900646583</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>60.00910900646583</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>60.00910900646583</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>60.00910900646583</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>60.00910900646583</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>60.00910900646583</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>60.00910900646583</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>802.6218329614803</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="M14" t="n">
-        <v>1397.673667531359</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="N14" t="n">
-        <v>2140.286391486374</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O14" t="n">
-        <v>2882.899115441388</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P14" t="n">
-        <v>2882.899115441388</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q14" t="n">
-        <v>2882.899115441388</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
-        <v>3000.455450323291</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>2896.088156196432</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>2675.162585241065</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2416.807675837477</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2138.162172631602</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>1741.770822931948</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>1330.050824099696</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>1330.050824099696</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>627.1326000379211</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>509.6266965554258</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>405.7867380707108</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>301.084804343648</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>207.4389740265522</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>113.3852022441562</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>67.45575196837767</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>339.1532412479688</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>339.1532412479688</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="L15" t="n">
-        <v>339.1532412479688</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="M15" t="n">
-        <v>339.1532412479688</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="N15" t="n">
-        <v>688.3535456856982</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="O15" t="n">
-        <v>688.3535456856982</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P15" t="n">
-        <v>1404.551262724196</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q15" t="n">
-        <v>1868.696739586976</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1868.696739586976</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1787.37249214823</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1645.492556445908</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1460.724360365545</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1255.751221504811</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1059.229844338028</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>895.7524981046914</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>756.0596094579838</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>796.1451604085092</v>
+        <v>789.1743829682065</v>
       </c>
       <c r="C16" t="n">
-        <v>796.1451604085092</v>
+        <v>789.1743829682065</v>
       </c>
       <c r="D16" t="n">
-        <v>796.1451604085092</v>
+        <v>681.7117617031458</v>
       </c>
       <c r="E16" t="n">
-        <v>641.6926896892429</v>
+        <v>515.5035558559994</v>
       </c>
       <c r="F16" t="n">
-        <v>469.8309154638034</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G16" t="n">
-        <v>303.5739457580355</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>159.7776772661899</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>117.5004372306238</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>344.028038436461</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>698.7173597308818</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1089.903154701133</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1467.394665577168</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1822.822794256932</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2113.422006178832</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2240.422136419594</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2240.422136419594</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2070.287088938729</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T16" t="n">
-        <v>1826.947741164629</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U16" t="n">
-        <v>1546.763292664933</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V16" t="n">
-        <v>1265.051825272962</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W16" t="n">
-        <v>1265.051825272962</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="X16" t="n">
-        <v>1022.487928718767</v>
+        <v>1015.517151278464</v>
       </c>
       <c r="Y16" t="n">
-        <v>796.1451604085092</v>
+        <v>789.1743829682065</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5506,10 @@
         <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5519,19 +5521,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
         <v>5115.135670291427</v>
@@ -5589,25 +5591,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>105.4776804749704</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>105.4776804749704</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M18" t="n">
-        <v>105.4776804749704</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1085.715267670341</v>
+        <v>747.5965237391339</v>
       </c>
       <c r="C19" t="n">
-        <v>913.7427045492574</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D19" t="n">
-        <v>750.4259316760281</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E19" t="n">
-        <v>584.2177258288816</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G19" t="n">
         <v>246.0989818976742</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2117.293299646366</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1873.953951872266</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1593.76950337257</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1312.058035980599</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1312.058035980599</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1312.058035980599</v>
+        <v>973.9392920493918</v>
       </c>
       <c r="Y19" t="n">
-        <v>1085.715267670341</v>
+        <v>747.5965237391339</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
         <v>839.4070255988738</v>
@@ -5750,28 +5752,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5826,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>775.6620294727279</v>
+        <v>584.328514724526</v>
       </c>
       <c r="C22" t="n">
-        <v>603.6894663516439</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D22" t="n">
-        <v>440.3726934784146</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5935,25 +5937,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>2080.149468020199</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1799.965019520503</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1518.253552128532</v>
       </c>
       <c r="W22" t="n">
-        <v>1260.306816359498</v>
+        <v>1243.401148301044</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.170766495052</v>
+        <v>1000.83725174685</v>
       </c>
       <c r="Y22" t="n">
-        <v>965.8279981847936</v>
+        <v>774.4944834365917</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6069,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>855.9100933510683</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="C25" t="n">
-        <v>683.9375302299843</v>
+        <v>396.9731123886033</v>
       </c>
       <c r="D25" t="n">
-        <v>683.9375302299843</v>
+        <v>233.656339515374</v>
       </c>
       <c r="E25" t="n">
-        <v>517.7293243828378</v>
+        <v>233.656339515374</v>
       </c>
       <c r="F25" t="n">
-        <v>345.8675501573982</v>
+        <v>233.656339515374</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6187,10 +6189,10 @@
         <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>855.9100933510683</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y25" t="n">
-        <v>855.9100933510683</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
     <row r="26">
@@ -6230,22 +6232,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N26" t="n">
-        <v>4090.576687723259</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O26" t="n">
-        <v>4935.721337874071</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6300,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>568.9456755096874</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C28" t="n">
-        <v>396.9731123886033</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E28" t="n">
         <v>102.3027134058285</v>
@@ -6424,10 +6426,10 @@
         <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>985.454412532011</v>
+        <v>854.1007864224655</v>
       </c>
       <c r="Y28" t="n">
-        <v>759.1116442217531</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D29" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E29" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6497,16 +6499,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y29" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6548,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M30" t="n">
-        <v>939.1015214887346</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N30" t="n">
-        <v>939.1015214887346</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1828.582799500206</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>771.3692302638447</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>599.3966671427606</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>599.3966671427606</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>599.3966671427606</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
-        <v>427.534892917321</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>261.2779232115532</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6646,25 +6648,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1992.33777973203</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1712.153331232334</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1430.441863840363</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.441863840363</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1187.877967286168</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>961.5351989759104</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6703,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1463.618246195026</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
-        <v>2467.904347614084</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L33" t="n">
-        <v>3306.448039710919</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M33" t="n">
-        <v>4362.434577686964</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N33" t="n">
-        <v>5115.135670291427</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O33" t="n">
-        <v>5115.135670291427</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P33" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q33" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>601.2341827829796</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="C34" t="n">
-        <v>601.2341827829796</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D34" t="n">
-        <v>437.9174099097503</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E34" t="n">
-        <v>437.9174099097503</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F34" t="n">
-        <v>266.0556356843107</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G34" t="n">
-        <v>266.0556356843107</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2593671924651</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6886,22 +6888,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W34" t="n">
-        <v>1260.306816359498</v>
+        <v>1429.01906963393</v>
       </c>
       <c r="X34" t="n">
-        <v>1017.742919805303</v>
+        <v>1186.455173079735</v>
       </c>
       <c r="Y34" t="n">
-        <v>791.4001514950452</v>
+        <v>960.1124047694775</v>
       </c>
     </row>
     <row r="35">
@@ -6950,10 +6952,10 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
         <v>4997.579335409525</v>
@@ -7023,16 +7025,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>875.4793615910734</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C37" t="n">
-        <v>703.5067984699893</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D37" t="n">
-        <v>540.1900255967601</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E37" t="n">
-        <v>540.1900255967601</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F37" t="n">
-        <v>368.3282513713204</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7129,16 +7131,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1542.018283751469</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1267.165879923982</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1024.601983369787</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>1024.601983369787</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1581.174581076928</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7208,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L39" t="n">
-        <v>692.7876399741681</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M39" t="n">
-        <v>692.7876399741681</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N39" t="n">
-        <v>692.7876399741681</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="O39" t="n">
-        <v>1582.26891798564</v>
+        <v>1263.481480696891</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>778.6022263052665</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C40" t="n">
-        <v>606.6296631841825</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D40" t="n">
-        <v>606.6296631841825</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E40" t="n">
-        <v>440.421457337036</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7336,46 +7338,46 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302473</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S40" t="n">
-        <v>2275.198630820844</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="T40" t="n">
-        <v>2031.859283046744</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="U40" t="n">
-        <v>1751.674834547048</v>
+        <v>1542.018283751472</v>
       </c>
       <c r="V40" t="n">
-        <v>1469.963367155077</v>
+        <v>1260.306816359501</v>
       </c>
       <c r="W40" t="n">
-        <v>1195.11096332759</v>
+        <v>985.4544125320137</v>
       </c>
       <c r="X40" t="n">
-        <v>1195.11096332759</v>
+        <v>793.966223959354</v>
       </c>
       <c r="Y40" t="n">
-        <v>968.7681950173321</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1761.303581470908</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>1334.402851484208</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>911.110230669208</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>485.1332908170656</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>60.00910900646583</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>60.00910900646583</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>60.00910900646583</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>422.6125678233614</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>1138.12087579886</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1138.12087579886</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>1836.09069166118</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.09069166118</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O41" t="n">
-        <v>1836.09069166118</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.369970819108</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>3000.455450323291</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>3000.455450323291</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3000.455450323291</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>3000.455450323291</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>3000.455450323291</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>2998.2092146398</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>2998.2092146398</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>2586.489215807547</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2181.151945762438</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>627.1326000379211</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C42" t="n">
-        <v>509.6266965554258</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D42" t="n">
-        <v>405.7867380707108</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E42" t="n">
-        <v>301.084804343648</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F42" t="n">
-        <v>207.4389740265522</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G42" t="n">
-        <v>113.3852022441562</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H42" t="n">
-        <v>60.00910900646583</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I42" t="n">
-        <v>67.45575196837767</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="J42" t="n">
-        <v>67.45575196837767</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="K42" t="n">
-        <v>67.45575196837767</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="L42" t="n">
-        <v>67.45575196837767</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="M42" t="n">
-        <v>67.45575196837767</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="N42" t="n">
-        <v>409.886298593463</v>
+        <v>4284.474559841866</v>
       </c>
       <c r="O42" t="n">
-        <v>1152.499022548478</v>
+        <v>4284.474559841866</v>
       </c>
       <c r="P42" t="n">
-        <v>1868.696739586976</v>
+        <v>4539.701767086725</v>
       </c>
       <c r="Q42" t="n">
-        <v>1868.696739586976</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R42" t="n">
-        <v>1868.696739586976</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S42" t="n">
-        <v>1787.37249214823</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T42" t="n">
-        <v>1645.492556445908</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U42" t="n">
-        <v>1460.724360365545</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V42" t="n">
-        <v>1255.751221504811</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W42" t="n">
-        <v>1059.229844338028</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X42" t="n">
-        <v>895.7524981046914</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y42" t="n">
-        <v>756.0596094579838</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>801.5044749378117</v>
+        <v>3399.46422884086</v>
       </c>
       <c r="C43" t="n">
-        <v>801.5044749378117</v>
+        <v>3399.46422884086</v>
       </c>
       <c r="D43" t="n">
-        <v>638.1877020645824</v>
+        <v>3399.46422884086</v>
       </c>
       <c r="E43" t="n">
-        <v>471.9794962174359</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="F43" t="n">
-        <v>300.1177219919963</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="G43" t="n">
-        <v>133.8607522862284</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H43" t="n">
-        <v>60.00910900646583</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I43" t="n">
-        <v>60.00910900646583</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J43" t="n">
-        <v>117.5004372306238</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K43" t="n">
-        <v>344.028038436461</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L43" t="n">
-        <v>698.7173597308818</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M43" t="n">
-        <v>1089.903154701133</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N43" t="n">
-        <v>1467.394665577168</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O43" t="n">
-        <v>1822.822794256932</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.422006178832</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q43" t="n">
-        <v>2240.422136419594</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R43" t="n">
-        <v>2193.383523106767</v>
+        <v>4956.808630636678</v>
       </c>
       <c r="S43" t="n">
-        <v>2023.248475625902</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="T43" t="n">
-        <v>1779.909127851802</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="U43" t="n">
-        <v>1499.724679352106</v>
+        <v>4615.100733636837</v>
       </c>
       <c r="V43" t="n">
-        <v>1218.013211960135</v>
+        <v>4333.389266244865</v>
       </c>
       <c r="W43" t="n">
-        <v>1218.013211960135</v>
+        <v>4058.536862417378</v>
       </c>
       <c r="X43" t="n">
-        <v>1218.013211960135</v>
+        <v>3815.972965863184</v>
       </c>
       <c r="Y43" t="n">
-        <v>991.6704436498774</v>
+        <v>3589.630197552925</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2036.610292420724</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>2036.610292420724</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1613.317671605725</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>1187.340731753582</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>762.2165499429824</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>357.877487532431</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>60.00910900646583</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>422.6125678233614</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>422.6125678233614</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L44" t="n">
-        <v>422.6125678233614</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M44" t="n">
-        <v>1165.225291778376</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N44" t="n">
-        <v>1165.225291778376</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>1907.83801573339</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>2426.813635937205</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>2882.899115441388</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3000.455450323291</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3000.455450323291</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>3000.455450323291</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>3000.455450323291</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>3000.455450323291</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>2604.064100623638</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>2604.064100623638</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2198.726830578529</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1758.891310774237</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>1641.385407291742</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>1537.545448807027</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>1432.843515079964</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>1339.197684762868</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>1245.143912980472</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>1191.767819742782</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>1191.767819742782</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>1191.767819742782</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K45" t="n">
-        <v>1191.767819742782</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L45" t="n">
-        <v>1191.767819742782</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="M45" t="n">
-        <v>1934.380543697796</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="N45" t="n">
-        <v>2676.993267652811</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="O45" t="n">
-        <v>3000.455450323291</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P45" t="n">
-        <v>3000.455450323291</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q45" t="n">
-        <v>3000.455450323291</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>3000.455450323291</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>2919.131202884546</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>2777.251267182224</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>2592.483071101861</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>2387.509932241127</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>2190.988555074344</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>2027.511208841007</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>1887.8183201943</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1143.190231530703</v>
+        <v>845.1393234720196</v>
       </c>
       <c r="C46" t="n">
-        <v>971.2176684096187</v>
+        <v>673.1667603509355</v>
       </c>
       <c r="D46" t="n">
-        <v>807.9008955363894</v>
+        <v>509.8499874777062</v>
       </c>
       <c r="E46" t="n">
-        <v>641.6926896892429</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="F46" t="n">
-        <v>469.8309154638034</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G46" t="n">
-        <v>303.5739457580355</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>159.7776772661899</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>117.5004372306238</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>344.028038436461</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>698.7173597308818</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1089.903154701133</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1467.394665577168</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1822.822794256932</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2113.422006178832</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2240.422136419594</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2240.422136419594</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2240.422136419594</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T46" t="n">
-        <v>1997.082788645494</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U46" t="n">
-        <v>1997.082788645494</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V46" t="n">
-        <v>1997.082788645494</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W46" t="n">
-        <v>1722.230384818007</v>
+        <v>1035.305292184085</v>
       </c>
       <c r="X46" t="n">
-        <v>1479.666488263812</v>
+        <v>1035.305292184085</v>
       </c>
       <c r="Y46" t="n">
-        <v>1333.356200242768</v>
+        <v>1035.305292184085</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>547.9768619480851</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>203.6125166681525</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,19 +8060,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>98.52275580777462</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
         <v>577.9986543204228</v>
@@ -8079,7 +8081,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>569.51856287543</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
@@ -8228,13 +8230,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>203.6125166681525</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
@@ -8304,13 +8306,13 @@
         <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>96.76900350898808</v>
       </c>
       <c r="O6" t="n">
-        <v>372.8619081923508</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>548.8576414812762</v>
       </c>
       <c r="M8" t="n">
-        <v>787.5451254802546</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>707.6193915872068</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>772.6289492950524</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>371.0330466836703</v>
       </c>
       <c r="O9" t="n">
-        <v>376.5831923353508</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>745.2028786174529</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,22 +8695,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>788.4259050134457</v>
+        <v>607.201212966307</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>787.5048219368468</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>298.2992117081323</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8769,7 +8771,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>355.9668504829543</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8778,19 +8780,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>771.4568907943644</v>
+        <v>298.7446820670145</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>788.4259050134457</v>
+        <v>886.6939262492853</v>
       </c>
       <c r="M14" t="n">
-        <v>638.4937220609255</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>787.3934854152689</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>787.5048219368468</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>482.0566840416755</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9015,13 +9017,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>374.0706084536725</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
@@ -9167,7 +9169,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9176,13 +9178,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>835.1882033210079</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9237,28 +9239,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>25.60627127691096</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>775.2973590804446</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9483,13 +9485,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>912.679259982217</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9644,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>772.395863235019</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,13 +9719,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>197.3567057122801</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9735,10 +9737,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9960,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>291.2228204893258</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10196,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10206,7 +10208,7 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>105.0107851302144</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10349,13 +10351,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>105.5494758988752</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10367,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10425,31 +10427,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>768.7505555806109</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574439</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,13 +10600,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>100.0581876036193</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10671,19 +10673,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>481.0004784218839</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>579.1176643018625</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10901,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10917,13 +10919,13 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>353.8126856499787</v>
+        <v>124.138595085601</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,25 +11065,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>742.4512789219771</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>382.6985455853151</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11148,16 +11150,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>367.2324692489814</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>773.285752303045</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>279.5761010481211</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>787.5451254802546</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>165.8504292605622</v>
       </c>
       <c r="O44" t="n">
-        <v>787.5048219368468</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>561.7931599959027</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11379,22 +11381,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>474.650675344883</v>
       </c>
       <c r="M45" t="n">
-        <v>773.2106430931508</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>771.4568907943644</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>349.9013671671521</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23258,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>273.9018985936453</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,19 +23418,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>33.4347291553637</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>78.05547255119609</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,16 +23658,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>55.29561009208696</v>
       </c>
       <c r="E16" t="n">
-        <v>11.63817777660131</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23899,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4.665480245191532</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>228.7382883108599</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24175,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>86.93357140528681</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>172.6835682228509</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>34.55431016026014</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>111.8893815995197</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>34.50603394022494</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>110.0981677402029</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>83.74373067638658</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>79.01379532835662</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>198.2230562345409</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40.63291346401815</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>113.008962604416</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>160.9917581079246</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>50.56495090171978</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>351.6907473983567</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>69.24517895996216</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>107.5254829909125</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>255.1545078723884</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26032,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>51.55588169712365</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>79.23215548632203</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>646426.6820494193</v>
+        <v>643371.1945854428</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>448922.7158428974</v>
+        <v>623137.2895385028</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>448922.7158428972</v>
+        <v>623137.2895385028</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>632814.9101687238</v>
+        <v>632814.910168724</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632814.910168724</v>
+        <v>632814.9101687239</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>632814.9101687238</v>
+        <v>632814.9101687239</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>632814.9101687239</v>
+        <v>632814.910168724</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632814.9101687239</v>
+        <v>632814.910168724</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>448922.7158428972</v>
+        <v>623137.2895385028</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>448922.7158428974</v>
+        <v>623137.2895385028</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>393148.8009075351</v>
+      </c>
+      <c r="C2" t="n">
         <v>393148.8009075352</v>
-      </c>
-      <c r="C2" t="n">
-        <v>393148.8009075351</v>
       </c>
       <c r="D2" t="n">
         <v>393148.8009075351</v>
       </c>
       <c r="E2" t="n">
-        <v>269134.6825918119</v>
+        <v>373569.1848794165</v>
       </c>
       <c r="F2" t="n">
-        <v>269134.6825918119</v>
+        <v>373569.1848794166</v>
       </c>
       <c r="G2" t="n">
         <v>379370.522117777</v>
       </c>
       <c r="H2" t="n">
-        <v>379370.522117777</v>
+        <v>379370.5221177771</v>
       </c>
       <c r="I2" t="n">
         <v>379370.5221177768</v>
       </c>
       <c r="J2" t="n">
-        <v>379370.5221177768</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="K2" t="n">
         <v>379370.5221177769</v>
       </c>
       <c r="L2" t="n">
-        <v>379370.522117777</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="M2" t="n">
         <v>379370.5221177769</v>
@@ -26350,10 +26352,10 @@
         <v>379370.522117777</v>
       </c>
       <c r="O2" t="n">
-        <v>269134.6825918119</v>
+        <v>373569.1848794164</v>
       </c>
       <c r="P2" t="n">
-        <v>269134.6825918119</v>
+        <v>373569.1848794165</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>60226.823545384</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>144900.5320224917</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>49070.81414520418</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,16 +26423,16 @@
         <v>156753.0758057354</v>
       </c>
       <c r="D4" t="n">
-        <v>125714.8957230604</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>20850.93181160582</v>
+        <v>28980.6795211164</v>
       </c>
       <c r="F4" t="n">
-        <v>20850.93181160582</v>
+        <v>28980.67952111639</v>
       </c>
       <c r="G4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="H4" t="n">
         <v>29432.2870559115</v>
@@ -26442,10 +26444,10 @@
         <v>29432.2870559115</v>
       </c>
       <c r="K4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591147</v>
       </c>
       <c r="L4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="M4" t="n">
         <v>29432.28705591151</v>
@@ -26454,10 +26456,10 @@
         <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
-        <v>20850.93181160582</v>
+        <v>28980.67952111639</v>
       </c>
       <c r="P4" t="n">
-        <v>20850.93181160581</v>
+        <v>28980.6795211164</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>79234.52284491403</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>45606.92284491402</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>45606.92284491402</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>45606.92284491402</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>45606.92284491402</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17455.25935036558</v>
+        <v>-17455.25935036567</v>
       </c>
       <c r="C6" t="n">
+        <v>168949.4740643717</v>
+      </c>
+      <c r="D6" t="n">
         <v>168949.4740643715</v>
       </c>
-      <c r="D6" t="n">
-        <v>127972.5587941766</v>
-      </c>
       <c r="E6" t="n">
-        <v>202676.8279352921</v>
+        <v>61097.73963370669</v>
       </c>
       <c r="F6" t="n">
-        <v>202676.827935292</v>
+        <v>268530.0272502678</v>
       </c>
       <c r="G6" t="n">
-        <v>127287.6408509441</v>
+        <v>264562.5507899543</v>
       </c>
       <c r="H6" t="n">
-        <v>272188.1728734358</v>
+        <v>272188.1728734359</v>
       </c>
       <c r="I6" t="n">
         <v>272188.1728734356</v>
       </c>
       <c r="J6" t="n">
-        <v>126654.5029386191</v>
+        <v>126654.5029386192</v>
       </c>
       <c r="K6" t="n">
+        <v>272188.1728734358</v>
+      </c>
+      <c r="L6" t="n">
         <v>272188.1728734357</v>
       </c>
-      <c r="L6" t="n">
-        <v>223117.3587282316</v>
-      </c>
       <c r="M6" t="n">
-        <v>272188.1728734357</v>
+        <v>99057.68166779612</v>
       </c>
       <c r="N6" t="n">
         <v>272188.1728734358</v>
       </c>
       <c r="O6" t="n">
-        <v>202676.827935292</v>
+        <v>268530.0272502676</v>
       </c>
       <c r="P6" t="n">
-        <v>202676.8279352921</v>
+        <v>268530.0272502677</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>750.1138625808228</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>750.1138625808228</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>750.1138625808228</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1138625808228</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1138625808228</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>193.8860494652287</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>528.670054992034</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>193.8860494652286</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>193.8860494652287</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>528.670054992034</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298.0622839885685</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>4.095730177743476</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>59.02450224040994</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>162.7373373116017</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>206.276239534001</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>23.20587070611069</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>185.3716196335914</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>50.32427764706441</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>157.6836177392387</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27907,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>99.5349127617749</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,19 +28016,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>129.3279385133177</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>71.04883327257284</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>510.5455990486533</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>158.2737632597931</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M3" t="n">
-        <v>75.42597529544663</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>556.2278131155941</v>
@@ -34799,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
@@ -34948,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,13 +35026,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
+        <v>75.42597529544641</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O6" t="n">
-        <v>349.6900184701286</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="M8" t="n">
-        <v>750.1138625808228</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>670.3397687527607</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>750.1138625808228</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="O9" t="n">
-        <v>353.4113026131286</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>723.4320374126243</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35413,22 +35415,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>750.1138625808228</v>
+        <v>568.8891705336841</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>750.1138625808228</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>262.1745371035342</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35489,7 +35491,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>333.567616649621</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>750.1138625808228</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>750.1138625808228</v>
+        <v>848.3818838166624</v>
       </c>
       <c r="M14" t="n">
-        <v>601.0624591614937</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>750.1138625808228</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>750.1138625808228</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>459.6574502083421</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>352.7275802401308</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
@@ -35887,7 +35889,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35896,13 +35898,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>797.7972439649839</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35957,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>3.207037443577619</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>752.782272366215</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>891.3362317686754</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36364,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>734.9646003355872</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>174.9574718789468</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36926,7 +36928,7 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>83.23994392538575</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>69.78487510406583</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37087,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>746.2354688663813</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439022</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37318,13 +37320,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>62.48282579338804</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37391,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,13 +37639,13 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>332.04184444515</v>
+        <v>102.3677538807724</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37706,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L40" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711539</v>
       </c>
       <c r="M40" t="n">
         <v>395.137166636617</v>
@@ -37783,25 +37785,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>705.0200160225453</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>345.307586229291</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37868,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>345.8894410354397</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>750.1138625808228</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>257.8052598432924</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>750.1138625808228</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>128.5708064261162</v>
       </c>
       <c r="O44" t="n">
-        <v>750.1138625808228</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>524.2177981856714</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>452.1355886306534</v>
       </c>
       <c r="M45" t="n">
-        <v>750.1138625808228</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>750.1138625808228</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>326.7294774449299</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1535660.317796512</v>
+        <v>1534942.327681653</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602537</v>
+        <v>11857191.11602536</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760745</v>
+        <v>698313.6830760742</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>43.72464718200592</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -676,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>99.22789100784752</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -721,10 +721,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.857062697108432</v>
+        <v>27.27731368981253</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -873,7 +873,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -882,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.4612653491233</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -913,7 +913,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>195.5104445397025</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1059,19 +1059,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>92.01098438110735</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>264.9481049475941</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>121.3414208355403</v>
       </c>
     </row>
     <row r="9">
@@ -1293,22 +1293,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>35.21818527535722</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>6.354375395472133</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1356,7 +1356,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1372,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>314.6596914499</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1423,7 +1423,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>96.44420510686371</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>134.9989678506928</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>292.3236405495131</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -1672,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>299.6307676069974</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>106.38799505241</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1779,7 +1779,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>102.2416806097835</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1858,7 +1858,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>105.5216215482644</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>11.39996927779299</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,13 +2092,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>76.45668180761336</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>153.9723828910722</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>130.04008984845</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2532,7 +2532,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>237.6322534771172</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2721,19 +2721,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>192.8717243028901</v>
       </c>
       <c r="X28" t="n">
-        <v>130.0400898484501</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2803,7 +2803,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>400.2956717864458</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3189,19 +3189,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>73.88082355467124</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3517,7 +3517,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -3666,13 +3666,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3726,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>189.5733066869331</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>345.6355659138804</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>245.9424894880796</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3900,16 +3900,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -3951,16 +3951,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>218.7757544134941</v>
       </c>
       <c r="U43" t="n">
-        <v>169.8571210237862</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -4036,10 +4036,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>245.9424894880796</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>284.4554049657235</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>194.1803003919827</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4197,10 +4197,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>220.5479980920884</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>462.6949895047144</v>
+        <v>151.235724060779</v>
       </c>
       <c r="C2" t="n">
-        <v>439.8346635584186</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D2" t="n">
-        <v>420.5824467838229</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E2" t="n">
-        <v>398.6459109720846</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F2" t="n">
-        <v>377.5621332018889</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
@@ -4333,22 +4333,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L2" t="n">
-        <v>1508.432753835019</v>
+        <v>572.914647509062</v>
       </c>
       <c r="M2" t="n">
-        <v>2059.098288819458</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N2" t="n">
-        <v>2059.098288819458</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O2" t="n">
-        <v>2059.098288819458</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P2" t="n">
-        <v>2059.098288819458</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
         <v>2224.911252462377</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.681059525157</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1903.75548856979</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>1645.400579166202</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V2" t="n">
-        <v>1287.911164292452</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W2" t="n">
-        <v>891.5198145927988</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="X2" t="n">
-        <v>883.8402198009501</v>
+        <v>976.4213583974188</v>
       </c>
       <c r="Y2" t="n">
-        <v>478.5029497558403</v>
+        <v>571.0840883523091</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>201.1892506764427</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L3" t="n">
-        <v>201.1892506764427</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M3" t="n">
-        <v>751.8547856608809</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N3" t="n">
-        <v>751.8547856608809</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="O3" t="n">
-        <v>1302.520320645319</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>791.3256356528027</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="C4" t="n">
-        <v>791.3256356528027</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="D4" t="n">
-        <v>628.0088627795734</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="E4" t="n">
-        <v>461.8006569324269</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="F4" t="n">
-        <v>289.9388827069873</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="G4" t="n">
         <v>288.0630618008172</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U4" t="n">
-        <v>1764.398243894585</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V4" t="n">
-        <v>1482.686776502613</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W4" t="n">
-        <v>1207.834372675126</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X4" t="n">
-        <v>1207.834372675126</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y4" t="n">
-        <v>981.4916043648684</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>831.8385222885896</v>
+        <v>533.7979646336248</v>
       </c>
       <c r="C5" t="n">
-        <v>808.9781963422938</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D5" t="n">
-        <v>385.6855755272941</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>363.7490397155557</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>342.66526194536</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4567,25 +4567,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M5" t="n">
-        <v>1508.432753835019</v>
+        <v>116.829168004879</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O5" t="n">
-        <v>1508.432753835019</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>2059.098288819458</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4597,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1923.058660820666</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1664.703751417078</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1664.703751417078</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W5" t="n">
-        <v>1664.703751417078</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X5" t="n">
-        <v>1657.024156625229</v>
+        <v>954.9431949298605</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.68688658012</v>
+        <v>549.6059248847508</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M6" t="n">
-        <v>1145.829295018124</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N6" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1027.91077931376</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>855.9382161926764</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D7" t="n">
-        <v>692.6214433194471</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E7" t="n">
-        <v>526.4132374723006</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F7" t="n">
-        <v>354.551463246861</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>2054.776204981511</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1961.835816717766</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1961.835816717766</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1686.983412890279</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1444.419516336084</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>1218.076748025826</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>813.6310375047708</v>
+        <v>2078.856605666331</v>
       </c>
       <c r="C8" t="n">
-        <v>546.0066890728575</v>
+        <v>2055.996279720035</v>
       </c>
       <c r="D8" t="n">
-        <v>526.7544722982618</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E8" t="n">
-        <v>504.8179364865234</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F8" t="n">
-        <v>483.7341587163277</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
         <v>79.39509630577632</v>
@@ -4807,25 +4807,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>549.9383681074144</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>549.9383681074144</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N8" t="n">
-        <v>1100.603903091853</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091853</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4834,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1646.496266633259</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1646.496266633259</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1638.81667184141</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>1233.479401796301</v>
+        <v>2094.664565917457</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>323.6423572907505</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>323.6423572907505</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
         <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>681.2762346339712</v>
+        <v>955.8175733480448</v>
       </c>
       <c r="C10" t="n">
-        <v>681.2762346339712</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="D10" t="n">
-        <v>517.9594617607419</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4992,22 +4992,22 @@
         <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>2171.454078144021</v>
       </c>
       <c r="V10" t="n">
-        <v>1372.637375483782</v>
+        <v>1889.74261075205</v>
       </c>
       <c r="W10" t="n">
-        <v>1097.784971656295</v>
+        <v>1614.890206924563</v>
       </c>
       <c r="X10" t="n">
-        <v>1097.784971656295</v>
+        <v>1372.326310370368</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.4422033460369</v>
+        <v>1145.98354206011</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.413071721394</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
         <v>2111.574999549778</v>
@@ -5047,13 +5047,13 @@
         <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1741.388990499732</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2745.67509191879</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N11" t="n">
-        <v>3721.926150405491</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
         <v>3721.926150405491</v>
@@ -5071,22 +5071,22 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>4678.554378867278</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.19946946369</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.598706058034</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012924</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>371.7744341585812</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M12" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N12" t="n">
-        <v>646.4020714735193</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O12" t="n">
-        <v>646.4020714735193</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P12" t="n">
         <v>1362.599788512017</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1017.001097697459</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C13" t="n">
-        <v>845.0285345763751</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D13" t="n">
-        <v>681.7117617031458</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="E13" t="n">
-        <v>515.5035558559994</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="F13" t="n">
-        <v>343.6417816305598</v>
+        <v>197.4953338758221</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2097.088765190713</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T13" t="n">
-        <v>1853.749417416613</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U13" t="n">
-        <v>1573.564968916917</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V13" t="n">
-        <v>1291.853501524946</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W13" t="n">
-        <v>1017.001097697459</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X13" t="n">
-        <v>1017.001097697459</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.001097697459</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D14" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E14" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F14" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G14" t="n">
         <v>432.8421946614841</v>
@@ -5284,22 +5284,22 @@
         <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>2018.08677664988</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2018.08677664988</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>2994.337835136581</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="O14" t="n">
-        <v>3839.482485287394</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>4547.761764445321</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
         <v>5003.847243949504</v>
@@ -5320,10 +5320,10 @@
         <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>555.1378205852488</v>
+        <v>355.7680503380957</v>
       </c>
       <c r="L15" t="n">
-        <v>555.1378205852488</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="M15" t="n">
-        <v>555.1378205852488</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="N15" t="n">
-        <v>555.1378205852488</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="O15" t="n">
-        <v>1444.619098596721</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P15" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
         <v>1908.7645754595</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.1743829682065</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>789.1743829682065</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>681.7117617031458</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>515.5035558559994</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>343.6417816305598</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
         <v>343.6417816305598</v>
@@ -5460,28 +5460,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2063.316311498426</v>
+        <v>2177.215547433751</v>
       </c>
       <c r="T16" t="n">
-        <v>1819.976963724326</v>
+        <v>1933.876199659651</v>
       </c>
       <c r="U16" t="n">
-        <v>1539.792515224631</v>
+        <v>1933.876199659651</v>
       </c>
       <c r="V16" t="n">
-        <v>1258.081047832659</v>
+        <v>1652.16473226768</v>
       </c>
       <c r="W16" t="n">
-        <v>1258.081047832659</v>
+        <v>1652.16473226768</v>
       </c>
       <c r="X16" t="n">
-        <v>1015.517151278464</v>
+        <v>1409.600835713485</v>
       </c>
       <c r="Y16" t="n">
-        <v>789.1743829682065</v>
+        <v>1183.258067403227</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5521,22 +5521,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>855.0038060102931</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>747.5965237391339</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C19" t="n">
-        <v>575.6239606180499</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="D19" t="n">
-        <v>412.3071877448206</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="E19" t="n">
-        <v>246.0989818976742</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="F19" t="n">
-        <v>246.0989818976742</v>
+        <v>208.8902099192269</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5715,10 +5715,10 @@
         <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>973.9392920493918</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>747.5965237391339</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>140.1622235167214</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L21" t="n">
-        <v>946.5481644506465</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M21" t="n">
-        <v>946.5481644506465</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.328514724526</v>
+        <v>686.6827951484232</v>
       </c>
       <c r="C22" t="n">
-        <v>412.355951603442</v>
+        <v>514.7102320273392</v>
       </c>
       <c r="D22" t="n">
-        <v>412.355951603442</v>
+        <v>351.3934591541099</v>
       </c>
       <c r="E22" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5940,22 +5940,22 @@
         <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>2080.149468020199</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U22" t="n">
-        <v>1799.965019520503</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V22" t="n">
-        <v>1518.253552128532</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W22" t="n">
-        <v>1243.401148301044</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X22" t="n">
-        <v>1000.83725174685</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y22" t="n">
-        <v>774.4944834365917</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2837.654482149731</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3813.905540636432</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4659.050190787244</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6071,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>275.5106105659859</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L24" t="n">
-        <v>275.5106105659859</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M24" t="n">
-        <v>275.5106105659859</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.825557038856</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>568.9456755096874</v>
+        <v>603.7382302102653</v>
       </c>
       <c r="C25" t="n">
-        <v>396.9731123886033</v>
+        <v>603.7382302102653</v>
       </c>
       <c r="D25" t="n">
-        <v>233.656339515374</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E25" t="n">
-        <v>233.656339515374</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F25" t="n">
-        <v>233.656339515374</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1629.208766294176</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1347.497298902205</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1072.644895074718</v>
       </c>
       <c r="X25" t="n">
-        <v>985.454412532011</v>
+        <v>830.0809985205233</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.1116442217531</v>
+        <v>603.7382302102653</v>
       </c>
     </row>
     <row r="26">
@@ -6232,19 +6232,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2467.904347614084</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>381.4468456473314</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>381.4468456473314</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M27" t="n">
-        <v>381.4468456473314</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N27" t="n">
-        <v>648.6278400003578</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O27" t="n">
-        <v>648.6278400003578</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>437.5920494001418</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>265.6194862790578</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>102.3027134058285</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X28" t="n">
-        <v>854.1007864224655</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>627.7580181122075</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E29" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.618246195026</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2467.904347614084</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>3444.155406100785</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>4289.300056251597</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6499,16 +6499,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y29" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>140.1622235167214</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L30" t="n">
-        <v>305.3113489363686</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D31" t="n">
-        <v>154.4092158344085</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="32">
@@ -6706,13 +6706,13 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O32" t="n">
         <v>3833.214576747414</v>
@@ -6779,28 +6779,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>1112.773316863137</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M33" t="n">
-        <v>1112.773316863137</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N33" t="n">
-        <v>1112.773316863137</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O33" t="n">
-        <v>1112.773316863137</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P33" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>769.9464360574118</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C34" t="n">
-        <v>769.9464360574118</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D34" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>2065.542080025265</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U34" t="n">
-        <v>1785.357631525569</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V34" t="n">
-        <v>1503.646164133598</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W34" t="n">
-        <v>1429.01906963393</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X34" t="n">
-        <v>1186.455173079735</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y34" t="n">
-        <v>960.1124047694775</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="35">
@@ -6937,22 +6937,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
         <v>4541.493855905342</v>
@@ -7028,10 +7028,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>557.3635891120873</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
         <v>1446.844867123559</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7180,16 +7180,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2720.098147267829</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3696.34920575453</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O38" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>374.0002026854196</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M39" t="n">
-        <v>374.0002026854196</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
-        <v>374.0002026854196</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1263.481480696891</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>603.8002552472883</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
         <v>102.3027134058285</v>
@@ -7338,46 +7338,46 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302473</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100498</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976534</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656297</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.677127506133</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025268</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251168</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751472</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359501</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>985.4544125320137</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>793.966223959354</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>793.966223959354</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
@@ -7423,10 +7423,10 @@
         <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>4088.350919196421</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="O41" t="n">
-        <v>4430.205429563419</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
         <v>4430.205429563419</v>
@@ -7447,16 +7447,16 @@
         <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>3195.159613368996</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L42" t="n">
-        <v>3195.159613368996</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M42" t="n">
-        <v>3195.159613368996</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N42" t="n">
-        <v>4284.474559841866</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="O42" t="n">
-        <v>4284.474559841866</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="P42" t="n">
-        <v>4539.701767086725</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q42" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3399.46422884086</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C43" t="n">
-        <v>3399.46422884086</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D43" t="n">
-        <v>3399.46422884086</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E43" t="n">
-        <v>3233.256022993713</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F43" t="n">
-        <v>3233.256022993713</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G43" t="n">
-        <v>3066.999053287946</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H43" t="n">
-        <v>2923.2027847961</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>4956.808630636678</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S43" t="n">
-        <v>4786.673583155813</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T43" t="n">
-        <v>4786.673583155813</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="U43" t="n">
-        <v>4615.100733636837</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="V43" t="n">
-        <v>4333.389266244865</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="W43" t="n">
-        <v>4058.536862417378</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X43" t="n">
-        <v>3815.972965863184</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y43" t="n">
-        <v>3589.630197552925</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="44">
@@ -7648,16 +7648,16 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2749.496401892824</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
         <v>2876.781500254679</v>
@@ -7684,7 +7684,7 @@
         <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
         <v>3775.38136270537</v>
@@ -7724,25 +7724,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>107.5235878409019</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L45" t="n">
-        <v>555.1378205852488</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M45" t="n">
-        <v>555.1378205852488</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N45" t="n">
-        <v>555.1378205852488</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="O45" t="n">
-        <v>1444.619098596721</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="P45" t="n">
         <v>1444.619098596721</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>845.1393234720196</v>
+        <v>767.8314564262178</v>
       </c>
       <c r="C46" t="n">
-        <v>673.1667603509355</v>
+        <v>595.8588933051337</v>
       </c>
       <c r="D46" t="n">
-        <v>509.8499874777062</v>
+        <v>432.5421204319044</v>
       </c>
       <c r="E46" t="n">
-        <v>343.6417816305598</v>
+        <v>266.333914584758</v>
       </c>
       <c r="F46" t="n">
-        <v>343.6417816305598</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G46" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
@@ -7833,25 +7833,25 @@
         <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2063.316311498426</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T46" t="n">
-        <v>1819.976963724326</v>
+        <v>2037.309641411632</v>
       </c>
       <c r="U46" t="n">
-        <v>1539.792515224631</v>
+        <v>1757.125192911936</v>
       </c>
       <c r="V46" t="n">
-        <v>1258.081047832659</v>
+        <v>1475.413725519965</v>
       </c>
       <c r="W46" t="n">
-        <v>1035.305292184085</v>
+        <v>1200.561321692478</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.305292184085</v>
+        <v>957.9974251382835</v>
       </c>
       <c r="Y46" t="n">
-        <v>1035.305292184085</v>
+        <v>957.9974251382835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>203.2524428583638</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>593.6590760150259</v>
@@ -7993,13 +7993,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.6125166681525</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8057,16 +8057,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8075,13 +8075,13 @@
         <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>466.3767193553316</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>203.6125166681525</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>96.76900350898808</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8455,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>548.8576414812762</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>571.0335849150666</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,25 +8534,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>371.0330466836703</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8695,16 +8695,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>607.201212966307</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8780,13 +8780,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>298.7446820670145</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
@@ -8932,16 +8932,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>886.6939262492853</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>653.3771105638739</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>482.0566840416755</v>
+        <v>280.6730777314198</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9020,13 +9020,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9169,16 +9169,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
-        <v>835.1882033210079</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>775.2973590804446</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9260,10 +9260,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>58.8530437382756</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>912.679259982217</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>772.395863235019</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>197.3567057122801</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9728,19 +9728,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,13 +9880,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9895,7 +9895,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,10 +9965,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>291.2228204893258</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P27" t="n">
         <v>745.2028786174529</v>
@@ -9977,7 +9977,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10135,7 +10135,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>58.8530437382756</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10205,13 +10205,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10354,16 +10354,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>877.2336749314295</v>
+        <v>791.8999401147988</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
@@ -10427,13 +10427,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>768.7505555806109</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10442,16 +10442,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,16 +10594,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>493.0472488628404</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10676,13 +10676,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>481.0004784218839</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10828,19 +10828,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>579.1176643018625</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10901,31 +10901,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>124.138595085601</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11071,13 +11071,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>382.6985455853151</v>
+        <v>653.3771105638739</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11141,7 +11141,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11150,13 +11150,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P42" t="n">
-        <v>279.5761010481211</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,10 +11305,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>165.8504292605622</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>474.650675344883</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11390,10 +11390,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>68.15019490184648</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>33.4347291553637</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>55.29561009208696</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>66.19201639627299</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>59.07277846044579</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>228.7382883108599</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>88.08944198106161</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24180,7 +24180,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>86.93357140528681</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,10 +24375,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.55431016026014</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>39.75035053758151</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>79.23215548632197</v>
       </c>
       <c r="X28" t="n">
-        <v>110.0981677402029</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>112.9606863843808</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24858,7 +24858,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>2.326677470262837</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.23940003763305</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>198.2230562345409</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>113.008962604416</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>50.56495090171978</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>107.9720312369334</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>22.1301998828649</v>
       </c>
       <c r="U43" t="n">
-        <v>107.5254829909125</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25924,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>107.9720312369334</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>46.72565390437634</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>51.55588169712365</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632814.9101687239</v>
+        <v>632814.9101687238</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>632814.910168724</v>
+        <v>632814.9101687239</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632814.9101687239</v>
+        <v>632814.910168724</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>632814.910168724</v>
+        <v>632814.9101687239</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632814.910168724</v>
+        <v>632814.9101687239</v>
       </c>
     </row>
     <row r="15">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>393148.800907535</v>
+      </c>
+      <c r="C2" t="n">
         <v>393148.8009075351</v>
-      </c>
-      <c r="C2" t="n">
-        <v>393148.8009075352</v>
       </c>
       <c r="D2" t="n">
         <v>393148.8009075351</v>
@@ -26325,34 +26325,34 @@
         <v>373569.1848794165</v>
       </c>
       <c r="F2" t="n">
-        <v>373569.1848794166</v>
+        <v>373569.1848794165</v>
       </c>
       <c r="G2" t="n">
         <v>379370.522117777</v>
       </c>
       <c r="H2" t="n">
-        <v>379370.5221177771</v>
+        <v>379370.522117777</v>
       </c>
       <c r="I2" t="n">
+        <v>379370.5221177769</v>
+      </c>
+      <c r="J2" t="n">
         <v>379370.5221177768</v>
       </c>
-      <c r="J2" t="n">
-        <v>379370.5221177769</v>
-      </c>
       <c r="K2" t="n">
-        <v>379370.5221177769</v>
+        <v>379370.522117777</v>
       </c>
       <c r="L2" t="n">
         <v>379370.5221177769</v>
       </c>
       <c r="M2" t="n">
+        <v>379370.522117777</v>
+      </c>
+      <c r="N2" t="n">
         <v>379370.5221177769</v>
       </c>
-      <c r="N2" t="n">
-        <v>379370.522117777</v>
-      </c>
       <c r="O2" t="n">
-        <v>373569.1848794164</v>
+        <v>373569.1848794165</v>
       </c>
       <c r="P2" t="n">
         <v>373569.1848794165</v>
@@ -26429,10 +26429,10 @@
         <v>28980.6795211164</v>
       </c>
       <c r="F4" t="n">
-        <v>28980.67952111639</v>
+        <v>28980.6795211164</v>
       </c>
       <c r="G4" t="n">
-        <v>29432.28705591151</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="H4" t="n">
         <v>29432.2870559115</v>
@@ -26441,16 +26441,16 @@
         <v>29432.2870559115</v>
       </c>
       <c r="J4" t="n">
+        <v>29432.28705591151</v>
+      </c>
+      <c r="K4" t="n">
         <v>29432.2870559115</v>
       </c>
-      <c r="K4" t="n">
-        <v>29432.28705591147</v>
-      </c>
       <c r="L4" t="n">
-        <v>29432.28705591151</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="M4" t="n">
-        <v>29432.28705591151</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="N4" t="n">
         <v>29432.2870559115</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17455.25935036567</v>
+        <v>-17455.25935036573</v>
       </c>
       <c r="C6" t="n">
-        <v>168949.4740643717</v>
+        <v>168949.4740643716</v>
       </c>
       <c r="D6" t="n">
-        <v>168949.4740643715</v>
+        <v>168949.4740643716</v>
       </c>
       <c r="E6" t="n">
-        <v>61097.73963370669</v>
+        <v>61025.2225373063</v>
       </c>
       <c r="F6" t="n">
-        <v>268530.0272502678</v>
+        <v>268457.5101538672</v>
       </c>
       <c r="G6" t="n">
-        <v>264562.5507899543</v>
+        <v>264511.52012777</v>
       </c>
       <c r="H6" t="n">
-        <v>272188.1728734359</v>
+        <v>272137.1422112515</v>
       </c>
       <c r="I6" t="n">
-        <v>272188.1728734356</v>
+        <v>272137.1422112514</v>
       </c>
       <c r="J6" t="n">
-        <v>126654.5029386192</v>
+        <v>126603.4722764348</v>
       </c>
       <c r="K6" t="n">
-        <v>272188.1728734358</v>
+        <v>272137.1422112515</v>
       </c>
       <c r="L6" t="n">
-        <v>272188.1728734357</v>
+        <v>272137.1422112514</v>
       </c>
       <c r="M6" t="n">
-        <v>99057.68166779612</v>
+        <v>99006.65100561194</v>
       </c>
       <c r="N6" t="n">
-        <v>272188.1728734358</v>
+        <v>272137.1422112514</v>
       </c>
       <c r="O6" t="n">
-        <v>268530.0272502676</v>
+        <v>268457.5101538672</v>
       </c>
       <c r="P6" t="n">
-        <v>268530.0272502677</v>
+        <v>268457.5101538672</v>
       </c>
     </row>
   </sheetData>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>378.9070755048269</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.095730177743476</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27542,16 +27542,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>162.7373373116017</v>
+        <v>137.3170863188977</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0.1704573377095926</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>23.20587070611069</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>185.3716196335914</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>157.6836177392387</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>279.9424765091183</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>129.3279385133177</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28064,10 +28064,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>271.0282286192266</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34701,10 +34701,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>556.2278131155941</v>
@@ -34713,13 +34713,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>73.06155854104185</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>167.4878420635545</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>75.42597529544641</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>510.5455990486533</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>349.6900184701286</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35415,16 +35415,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>568.8891705336841</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>277.4016538534729</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
@@ -35652,16 +35652,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>848.3818838166624</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>615.9861512078497</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>459.6574502083421</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
-        <v>797.7972439649839</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>752.782272366215</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>38.24192940494226</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>891.3362317686754</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>734.9646003355872</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>174.9574718789468</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,19 +36448,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,13 +36600,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36615,7 +36615,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,10 +36685,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>269.8797922757842</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P27" t="n">
         <v>723.4320374126243</v>
@@ -36697,7 +36697,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36855,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>38.24192940494226</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>839.8024120319977</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>746.2354688663813</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,16 +37314,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>455.4718870526091</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37396,13 +37396,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>459.6574502083422</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37548,19 +37548,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>540.8056218692396</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>102.3677538807724</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,7 +37706,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L40" t="n">
-        <v>358.272041711539</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M40" t="n">
         <v>395.137166636617</v>
@@ -37791,13 +37791,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>345.307586229291</v>
+        <v>615.9861512078497</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,13 +37870,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P42" t="n">
-        <v>257.8052598432924</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,10 +38025,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>128.5708064261162</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>452.1355886306534</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
